--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 11:47:27 AM</t>
+    <t>Generated: 2023-10-03 11:50:54 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 11:50:54 AM</t>
+    <t>Generated: 2023-10-03 12:34:44 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 12:34:44 PM</t>
+    <t>Generated: 2023-10-03 02:56:38 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 02:56:38 PM</t>
+    <t>Generated: 2023-10-03 09:45:56 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-03 09:45:56 PM</t>
+    <t>Generated: 2023-10-05 10:40:25 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-05 10:40:25 AM</t>
+    <t>Generated: 2023-10-06 01:09:57 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-06 01:09:57 PM</t>
+    <t>Generated: 2023-10-07 09:06:19 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-07 09:06:19 PM</t>
+    <t>Generated: 2023-10-08 11:29:27 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:29:27 AM</t>
+    <t>Generated: 2023-10-08 11:51:58 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-08 11:51:58 AM</t>
+    <t>Generated: 2023-10-10 10:43:19 AM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-10 10:43:19 AM</t>
+    <t>Generated: 2023-10-13 12:03:46 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-13 12:03:46 PM</t>
+    <t>Generated: 2023-10-19 02:26:39 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-19 02:26:39 PM</t>
+    <t>Generated: 2023-10-23 12:57:25 PM</t>
   </si>
 </sst>
 </file>

--- a/Reports/Week01_report.xlsx
+++ b/Reports/Week01_report.xlsx
@@ -208,7 +208,7 @@
     <t>Week: Week01</t>
   </si>
   <si>
-    <t>Generated: 2023-10-23 12:57:25 PM</t>
+    <t>Generated: 2023-10-25 11:22:40 AM</t>
   </si>
 </sst>
 </file>
